--- a/我的创作/人际关系计划-执行-结果.xlsx
+++ b/我的创作/人际关系计划-执行-结果.xlsx
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="3"/>
